--- a/Data/DS00071/connectMeasures.xlsx
+++ b/Data/DS00071/connectMeasures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -29,15 +29,15 @@
     <t>stdWeight</t>
   </si>
   <si>
+    <t>aisledNum</t>
+  </si>
+  <si>
     <t>avgShPath</t>
   </si>
   <si>
     <t>avgClust</t>
   </si>
   <si>
-    <t>tree</t>
-  </si>
-  <si>
     <t>leafNum</t>
   </si>
   <si>
@@ -53,15 +53,6 @@
     <t>M87160332</t>
   </si>
   <si>
-    <t>Not connected</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Not tree</t>
-  </si>
-  <si>
     <t>M87168759</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
   </si>
   <si>
     <t>M87185000</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>M87146993</t>
@@ -482,7 +470,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,21 +493,20 @@
   </sheetPr>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.42105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.32793522267207"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.0242914979757"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.42105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
@@ -571,31 +558,31 @@
       <c r="D2" s="1" t="n">
         <v>0.0888410088678427</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>53.9981351981352</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.0105566418152438</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="H2" s="1" t="n">
+        <v>0.553846153846154</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>13.0454545454545</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0.646153846153846</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>495</v>
@@ -606,31 +593,31 @@
       <c r="D3" s="1" t="n">
         <v>0.0826212940668367</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="E3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
+        <v>36.2203687445127</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0.00864271924146657</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="1" t="n">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>12.5147058823529</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.625056535504297</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>0.334298118668596</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>456</v>
@@ -641,31 +628,31 @@
       <c r="D4" s="1" t="n">
         <v>0.0868761557792981</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>55.2532790592492</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>0.00931060363826317</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="H4" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>10.1940298507463</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.738461538461539</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>0.328282828282828</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>464</v>
@@ -676,31 +663,31 @@
       <c r="D5" s="1" t="n">
         <v>0.112747657623839</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
+        <v>43.579283887468</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>0.0137562594142167</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="H5" s="1" t="n">
+        <v>0.426470588235294</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>13.3478260869565</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.590430201931519</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.361152416356877</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>479</v>
@@ -711,31 +698,31 @@
       <c r="D6" s="1" t="n">
         <v>0.0932492496330129</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
+        <v>42.3876207199298</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>0.0103840973417263</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="H6" s="1" t="n">
+        <v>0.492537313432836</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>10.6764705882353</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.711442786069652</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.346153846153846</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>473</v>
@@ -746,31 +733,31 @@
       <c r="D7" s="1" t="n">
         <v>0.112812386508397</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
+        <v>73.7563652326602</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>0.0143225943788295</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="H7" s="1" t="n">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>15.8382352941177</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.575757575757576</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.362922230950511</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>457</v>
@@ -782,13 +769,13 @@
         <v>0.094219680882605</v>
       </c>
       <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>52.0281573498965</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>0.0102825480612645</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0.434782608695652</v>
@@ -805,7 +792,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>491</v>
@@ -817,13 +804,13 @@
         <v>0.0947735709158422</v>
       </c>
       <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>56.3296066252588</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="G9" s="1" t="n">
         <v>0.0112478421477336</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0.434782608695652</v>
@@ -840,7 +827,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>474</v>
@@ -851,31 +838,31 @@
       <c r="D10" s="1" t="n">
         <v>0.103441930658565</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
+      <c r="E10" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
+        <v>37.6817383669886</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>0.0116551618924996</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="H10" s="1" t="n">
+        <v>0.492537313432836</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>14.2205882352941</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0.685662596110357</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.359168865435356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>512</v>
@@ -886,31 +873,31 @@
       <c r="D11" s="1" t="n">
         <v>0.0972105261669008</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
+        <v>44.4394205443371</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>0.0130245098459761</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="H11" s="1" t="n">
+        <v>0.477611940298508</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>12.7941176470588</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.618272274988693</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0.386247256766642</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>447</v>
@@ -921,31 +908,31 @@
       <c r="D12" s="1" t="n">
         <v>0.100267134498261</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="n">
+        <v>88.4297629499561</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>0.0132154648936325</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
+      <c r="H12" s="1" t="n">
+        <v>0.402985074626866</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>13.3970588235294</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0.694708276797829</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>0.2900390625</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>474</v>
@@ -956,31 +943,31 @@
       <c r="D13" s="1" t="n">
         <v>0.101140434936507</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
+      <c r="E13" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F13" s="1" t="n">
+        <v>50.7901402080507</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>0.0118930882090717</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
+      <c r="H13" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>13.8059701492537</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.612121212121212</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0.396039603960396</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>501</v>
@@ -991,31 +978,31 @@
       <c r="D14" s="1" t="n">
         <v>0.104196153995124</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
+      <c r="E14" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="n">
+        <v>62.8113975576662</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>0.0129804175178578</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
+      <c r="H14" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>13.4029850746269</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>0.749184149184149</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0.313472308649658</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>475</v>
@@ -1026,31 +1013,31 @@
       <c r="D15" s="1" t="n">
         <v>0.086339610476065</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
+      <c r="E15" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="n">
+        <v>80.5635459068295</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>0.0119081529641957</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
+      <c r="H15" s="1" t="n">
+        <v>0.439393939393939</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>14.4925373134328</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0.631701631701632</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>0.347785977859779</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>464</v>
@@ -1061,31 +1048,31 @@
       <c r="D16" s="1" t="n">
         <v>0.0837052041599211</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
+      <c r="E16" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="n">
+        <v>82.849841700588</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>0.00959851195998952</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
+      <c r="H16" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>13.7462686567164</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.621911421911422</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0.377623688155922</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>490</v>
@@ -1096,31 +1083,31 @@
       <c r="D17" s="1" t="n">
         <v>0.084046866430749</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+      <c r="E17" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
+        <v>36.6259877085162</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>0.00938696033960233</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
+      <c r="H17" s="1" t="n">
+        <v>0.402985074626866</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>13.5441176470588</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0.739936680235188</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>0.272310513447433</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>449</v>
@@ -1131,31 +1118,31 @@
       <c r="D18" s="1" t="n">
         <v>0.0947948058115049</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
+      <c r="E18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="n">
+        <v>52.3202170963365</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>0.0102735877871222</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
+      <c r="H18" s="1" t="n">
+        <v>0.409090909090909</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>15.4925373134328</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0.718414918414918</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0.284717715768981</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>524</v>
@@ -1166,31 +1153,31 @@
       <c r="D19" s="1" t="n">
         <v>0.101279101481422</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
+      <c r="E19" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F19" s="1" t="n">
+        <v>28.0461329715061</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>0.011178425417146</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>14</v>
+      <c r="H19" s="1" t="n">
+        <v>0.53030303030303</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>11.4626865671642</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.761771561771562</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0.348072215422277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>472</v>
@@ -1201,31 +1188,31 @@
       <c r="D20" s="1" t="n">
         <v>0.0979820626213001</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
+      <c r="E20" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="n">
+        <v>42.188762071993</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>0.0122077956884756</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
+      <c r="H20" s="1" t="n">
+        <v>0.462686567164179</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>11.3235294117647</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.61917684305744</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0.373630387143901</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>461</v>
@@ -1236,31 +1223,31 @@
       <c r="D21" s="1" t="n">
         <v>0.114381441771426</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
+      <c r="E21" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>66.0940750791497</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>0.0139630681568014</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
+      <c r="H21" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>10.910447761194</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0.63962703962704</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0.36716472303207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>469</v>
@@ -1271,31 +1258,31 @@
       <c r="D22" s="1" t="n">
         <v>0.103087719325595</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
+      <c r="E22" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="n">
+        <v>66.5640913081651</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>0.0114739257643774</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>14</v>
+      <c r="H22" s="1" t="n">
+        <v>0.373134328358209</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>13.5294117647059</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0.664405246494799</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>0.280803267528931</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>477</v>
@@ -1306,31 +1293,31 @@
       <c r="D23" s="1" t="n">
         <v>0.0939264717219588</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
+      <c r="E23" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="n">
+        <v>74.322026232474</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>0.0113489231071713</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>14</v>
+      <c r="H23" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>15.9701492537313</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0.369318181818182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>494</v>
@@ -1341,31 +1328,31 @@
       <c r="D24" s="1" t="n">
         <v>0.0974748586837637</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
+      <c r="E24" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="n">
+        <v>72.1296037296037</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>0.0124168601132054</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
+      <c r="H24" s="1" t="n">
+        <v>0.430769230769231</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>13.1818181818182</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0.740384615384615</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0.290909090909091</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>425</v>
@@ -1376,31 +1363,31 @@
       <c r="D25" s="1" t="n">
         <v>0.0979590426729218</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
+      <c r="E25" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="n">
+        <v>58.4745390693591</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>0.0110233886488461</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
+      <c r="H25" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>13.9705882352941</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0.672546359113523</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0.321788836583726</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>468</v>
@@ -1411,31 +1398,31 @@
       <c r="D26" s="1" t="n">
         <v>0.100039218916504</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
+      <c r="E26" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="n">
+        <v>39.1558384547849</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>0.0119030888893714</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>14</v>
+      <c r="H26" s="1" t="n">
+        <v>0.388059701492537</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>13.6764705882353</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0.771596562641339</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0.251465416178195</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>486</v>
@@ -1446,31 +1433,31 @@
       <c r="D27" s="1" t="n">
         <v>0.123802895259022</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
+        <v>39.7843137254902</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>0.0139742510020334</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>14</v>
+      <c r="H27" s="1" t="n">
+        <v>0.514705882352941</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>10.695652173913</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0.660667251975417</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0.38953488372093</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>471</v>
@@ -1482,13 +1469,13 @@
         <v>0.100826916376544</v>
       </c>
       <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>73.0024844720497</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>0.0132303357721726</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0.420289855072464</v>
@@ -1505,7 +1492,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>489</v>
@@ -1516,31 +1503,31 @@
       <c r="D29" s="1" t="n">
         <v>0.0896250562340417</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="n">
+        <v>33.7932651321398</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>0.00960201355518741</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>14</v>
+      <c r="H29" s="1" t="n">
+        <v>0.426470588235294</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>13.5507246376812</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0.583406496927129</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0.365500376222724</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>469</v>
@@ -1551,31 +1538,31 @@
       <c r="D30" s="1" t="n">
         <v>0.0963019985416048</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+      <c r="E30" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F30" s="1" t="n">
+        <v>46.4436906377205</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>0.0108355884356226</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>14</v>
+      <c r="H30" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>12.2835820895522</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0.714685314685315</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0.318003913894325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>426</v>
@@ -1586,31 +1573,31 @@
       <c r="D31" s="1" t="n">
         <v>0.0959098248768098</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="n">
+        <v>40.7208013640239</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <v>0.0092888160075218</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>14</v>
+      <c r="H31" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>15.4202898550725</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0.609745390693591</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0.337652987760979</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>502</v>
@@ -1621,31 +1608,31 @@
       <c r="D32" s="1" t="n">
         <v>0.103362784156735</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
+      <c r="E32" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="n">
+        <v>42.7054433713784</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>0.0125779116617442</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>14</v>
+      <c r="H32" s="1" t="n">
+        <v>0.477611940298508</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>11.1911764705882</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0.694255992763455</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0.343973941368078</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>461</v>
@@ -1656,31 +1643,31 @@
       <c r="D33" s="1" t="n">
         <v>0.0935144483677061</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
+      <c r="E33" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>38.0443371378402</v>
+      </c>
+      <c r="G33" s="1" t="n">
         <v>0.0103639035228004</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>14</v>
+      <c r="H33" s="1" t="n">
+        <v>0.402985074626866</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>13.6029411764706</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.674355495251018</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.298792756539235</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>495</v>
@@ -1691,31 +1678,31 @@
       <c r="D34" s="1" t="n">
         <v>0.0976260023948715</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
+      <c r="E34" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="n">
+        <v>31.7897278314311</v>
+      </c>
+      <c r="G34" s="1" t="n">
         <v>0.0113593544230406</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>14</v>
+      <c r="H34" s="1" t="n">
+        <v>0.462686567164179</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>11.8382352941177</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0.662143826322931</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0.349385245901639</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>475</v>
@@ -1726,31 +1713,31 @@
       <c r="D35" s="1" t="n">
         <v>0.0915536378195901</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
+      <c r="E35" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="n">
+        <v>53.6426956128449</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>0.0106815808588367</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>14</v>
+      <c r="H35" s="1" t="n">
+        <v>0.53030303030303</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>10.865671641791</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0.630769230769231</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0.420362158167036</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>480</v>
@@ -1761,31 +1748,31 @@
       <c r="D36" s="1" t="n">
         <v>0.0938156894573273</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+      <c r="E36" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="n">
+        <v>40.4934152765584</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>0.011528083302696</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>14</v>
+      <c r="H36" s="1" t="n">
+        <v>0.492537313432836</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>11.8676470588235</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0.770239710538218</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0.319729888432178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>455</v>
@@ -1796,31 +1783,31 @@
       <c r="D37" s="1" t="n">
         <v>0.103363347422926</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
+      <c r="E37" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="n">
+        <v>53.301580333626</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>0.0125304587837618</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>14</v>
+      <c r="H37" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>12.9411764705882</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0.618272274988693</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0.35003657644477</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>431</v>
@@ -1831,31 +1818,31 @@
       <c r="D38" s="1" t="n">
         <v>0.111616485486004</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+      <c r="E38" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="n">
+        <v>44.0405594405594</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>0.0118782526582022</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>14</v>
+      <c r="H38" s="1" t="n">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>10.5757575757576</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0.690384615384615</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>0.356545961002785</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>485</v>
@@ -1866,31 +1853,31 @@
       <c r="D39" s="1" t="n">
         <v>0.10940335223341</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
+      <c r="E39" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="n">
+        <v>46.4947987336047</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>0.0122001048837129</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>14</v>
+      <c r="H39" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>14.5373134328358</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0.646620046620047</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>0.374909877433309</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>442</v>
@@ -1901,31 +1888,31 @@
       <c r="D40" s="1" t="n">
         <v>0.0885739708810946</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
+      <c r="E40" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="n">
+        <v>52.9009497964722</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>0.0108758876563261</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>14</v>
+      <c r="H40" s="1" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>14.6268656716418</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>0.711888111888112</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>0.255402750491159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>544</v>
@@ -1936,31 +1923,31 @@
       <c r="D41" s="1" t="n">
         <v>0.129723740526866</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
+      <c r="E41" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="n">
+        <v>49.2085162423178</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>0.0168082221007039</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>14</v>
+      <c r="H41" s="1" t="n">
+        <v>0.492537313432836</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>13.5588235294118</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>0.6318407960199</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>0.389763779527559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>430</v>
@@ -1971,31 +1958,31 @@
       <c r="D42" s="1" t="n">
         <v>0.110227014638204</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
+      <c r="E42" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="n">
+        <v>51.0508158508159</v>
+      </c>
+      <c r="G42" s="1" t="n">
         <v>0.014154944626306</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>14</v>
+      <c r="H42" s="1" t="n">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>11.8484848484849</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>0.68125</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0.361326746647848</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>462</v>
@@ -2006,31 +1993,31 @@
       <c r="D43" s="1" t="n">
         <v>0.110414964538797</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
+      <c r="E43" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="n">
+        <v>56.4739936680235</v>
+      </c>
+      <c r="G43" s="1" t="n">
         <v>0.0135792256193674</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>14</v>
+      <c r="H43" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>10.3731343283582</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>0.726806526806527</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0.323123797305965</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>471</v>
@@ -2041,31 +2028,31 @@
       <c r="D44" s="1" t="n">
         <v>0.0937046436461587</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
+      <c r="E44" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="n">
+        <v>61.5834464043419</v>
+      </c>
+      <c r="G44" s="1" t="n">
         <v>0.0105539910704119</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I44" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>14</v>
+      <c r="J44" s="1" t="n">
+        <v>0.633566433566434</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0.382634289919058</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>519</v>
@@ -2076,31 +2063,31 @@
       <c r="D45" s="1" t="n">
         <v>0.0888462482298817</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="n">
+        <v>47.5839727195226</v>
+      </c>
+      <c r="G45" s="1" t="n">
         <v>0.00933983832641242</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>14</v>
+      <c r="H45" s="1" t="n">
+        <v>0.397058823529412</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>14.8695652173913</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>0.590869183494293</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>0.335995542347697</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>459</v>
@@ -2112,13 +2099,13 @@
         <v>0.102484490713066</v>
       </c>
       <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <v>36.3610766045549</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="G46" s="1" t="n">
         <v>0.00941187237036189</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>0.463768115942029</v>
@@ -2135,7 +2122,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>472</v>
@@ -2147,13 +2134,13 @@
         <v>0.105097926569064</v>
       </c>
       <c r="E47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1" t="n">
         <v>36.8703933747412</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="G47" s="1" t="n">
         <v>0.012047875443405</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0.463768115942029</v>
@@ -2170,7 +2157,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>449</v>
@@ -2181,31 +2168,31 @@
       <c r="D48" s="1" t="n">
         <v>0.0994716931490899</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
+      <c r="E48" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F48" s="1" t="n">
+        <v>66.0180913613749</v>
+      </c>
+      <c r="G48" s="1" t="n">
         <v>0.0107875592703938</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>14</v>
+      <c r="H48" s="1" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>13.4328358208955</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>0.624708624708625</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0.436567164179105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>528</v>
@@ -2216,31 +2203,31 @@
       <c r="D49" s="1" t="n">
         <v>0.108834986643526</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
+      <c r="E49" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F49" s="1" t="n">
+        <v>37.8200175592625</v>
+      </c>
+      <c r="G49" s="1" t="n">
         <v>0.0138752208111709</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>14</v>
+      <c r="H49" s="1" t="n">
+        <v>0.462686567164179</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>15.5882352941177</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>0.707824513794663</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>0.326837060702875</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>497</v>
@@ -2251,31 +2238,31 @@
       <c r="D50" s="1" t="n">
         <v>0.0825813009961712</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
+      <c r="E50" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="n">
+        <v>56.3500678426052</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>0.00980100993303687</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>14</v>
+      <c r="H50" s="1" t="n">
+        <v>0.393939393939394</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>19.6119402985075</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>0.60979020979021</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>0.323012232415902</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>484</v>
@@ -2286,31 +2273,31 @@
       <c r="D51" s="1" t="n">
         <v>0.105970810170799</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
+      <c r="E51" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="n">
+        <v>52.3971153846154</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <v>0.013034052963226</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>14</v>
+      <c r="H51" s="1" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>14.1538461538462</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>0.634920634920635</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>0.3322265625</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>453</v>
@@ -2321,31 +2308,31 @@
       <c r="D52" s="1" t="n">
         <v>0.0960749394947796</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
+      <c r="E52" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="n">
+        <v>44.9312528267752</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <v>0.0122664940188919</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>14</v>
+      <c r="H52" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>15.1044776119403</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>0.657808857808858</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>0.368532955350815</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>502</v>
@@ -2356,31 +2343,31 @@
       <c r="D53" s="1" t="n">
         <v>0.103806005076094</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
+      <c r="E53" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="n">
+        <v>72.3229308005427</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <v>0.0125135341746887</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>14</v>
+      <c r="H53" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>11.5820895522388</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>0.604662004662005</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>0.400925212027756</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>459</v>
@@ -2391,31 +2378,31 @@
       <c r="D54" s="1" t="n">
         <v>0.0978789127364696</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
+      <c r="E54" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="n">
+        <v>30.3132992327366</v>
+      </c>
+      <c r="G54" s="1" t="n">
         <v>0.0103612943671772</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>14</v>
+      <c r="H54" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>13.0434782608696</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>0.696663740122915</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>0.295526149968494</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>468</v>
@@ -2426,31 +2413,31 @@
       <c r="D55" s="1" t="n">
         <v>0.0913738302374124</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
+      <c r="E55" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="n">
+        <v>58.6335664335664</v>
+      </c>
+      <c r="G55" s="1" t="n">
         <v>0.00956653105552544</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>14</v>
+      <c r="H55" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>14.469696969697</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>0.680288461538462</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>0.293992932862191</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>492</v>
@@ -2461,31 +2448,31 @@
       <c r="D56" s="1" t="n">
         <v>0.0976161482610896</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
+      <c r="E56" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F56" s="1" t="n">
+        <v>35.7426503844414</v>
+      </c>
+      <c r="G56" s="1" t="n">
         <v>0.0116219056709307</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>14</v>
+      <c r="H56" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>11.3582089552239</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>0.753379953379953</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>0.301670792079208</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>483</v>
@@ -2496,31 +2483,31 @@
       <c r="D57" s="1" t="n">
         <v>0.0920894760161775</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
+      <c r="E57" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="n">
+        <v>77.2306648575305</v>
+      </c>
+      <c r="G57" s="1" t="n">
         <v>0.0106593379760075</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>14</v>
+      <c r="H57" s="1" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>14.4328358208955</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>0.665268065268065</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>0.31885073580939</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>527</v>
@@ -2531,31 +2518,31 @@
       <c r="D58" s="1" t="n">
         <v>0.09549309224029</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
+      <c r="E58" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F58" s="1" t="n">
+        <v>31.5469710272169</v>
+      </c>
+      <c r="G58" s="1" t="n">
         <v>0.0107422392890856</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>14</v>
+      <c r="H58" s="1" t="n">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>14.8382352941177</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>0.672546359113523</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>0.310692669804976</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>459</v>
@@ -2566,31 +2553,31 @@
       <c r="D59" s="1" t="n">
         <v>0.0947232487300054</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
+      <c r="E59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F59" s="1" t="n">
+        <v>53.8312020460358</v>
+      </c>
+      <c r="G59" s="1" t="n">
         <v>0.0105737636799238</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>14</v>
+      <c r="H59" s="1" t="n">
+        <v>0.455882352941176</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>15.0579710144928</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>0.560579455662862</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>0.406617071260767</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>506</v>
@@ -2602,13 +2589,13 @@
         <v>0.086177745572218</v>
       </c>
       <c r="E60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="n">
         <v>38.6865424430642</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="G60" s="1" t="n">
         <v>0.0103915764890627</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>0.434782608695652</v>
@@ -2625,7 +2612,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>514</v>
@@ -2636,31 +2623,31 @@
       <c r="D61" s="1" t="n">
         <v>0.0992032029215273</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
+      <c r="E61" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="n">
+        <v>43.6424242424242</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <v>0.0111176822797865</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>14</v>
+      <c r="H61" s="1" t="n">
+        <v>0.430769230769231</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>11.6212121212121</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>0.778365384615385</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>0.276714021000618</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>521</v>
@@ -2671,31 +2658,31 @@
       <c r="D62" s="1" t="n">
         <v>0.0929014275701952</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
+      <c r="E62" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="n">
+        <v>24.0601404741001</v>
+      </c>
+      <c r="G62" s="1" t="n">
         <v>0.0097563746283828</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>14</v>
+      <c r="H62" s="1" t="n">
+        <v>0.507462686567164</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>13.6764705882353</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>0.638172772501131</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>0.397590361445783</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>444</v>
@@ -2706,31 +2693,31 @@
       <c r="D63" s="1" t="n">
         <v>0.0997912112992504</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
+      <c r="E63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F63" s="1" t="n">
+        <v>64.4194373401535</v>
+      </c>
+      <c r="G63" s="1" t="n">
         <v>0.0100320854163449</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>14</v>
+      <c r="H63" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>19.5507246376812</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>0.638279192273924</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>0.322558459422283</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>493</v>
@@ -2741,31 +2728,31 @@
       <c r="D64" s="1" t="n">
         <v>0.098547353650022</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
+      <c r="E64" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F64" s="1" t="n">
+        <v>93.6481230212574</v>
+      </c>
+      <c r="G64" s="1" t="n">
         <v>0.0136051182184133</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>14</v>
+      <c r="H64" s="1" t="n">
+        <v>0.439393939393939</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>14.7611940298507</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>0.680652680652681</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>0.32277397260274</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>478</v>
@@ -2776,31 +2763,31 @@
       <c r="D65" s="1" t="n">
         <v>0.085635117743491</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
+      <c r="E65" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="n">
+        <v>50.8923076923077</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <v>0.0105557487529221</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>14</v>
+      <c r="H65" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>15.1818181818182</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>0.304761904761905</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>462</v>
@@ -2811,31 +2798,31 @@
       <c r="D66" s="1" t="n">
         <v>0.0963763193570107</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
+      <c r="E66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F66" s="1" t="n">
+        <v>48.3188405797102</v>
+      </c>
+      <c r="G66" s="1" t="n">
         <v>0.0099692778757034</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>14</v>
+      <c r="H66" s="1" t="n">
+        <v>0.338235294117647</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>15.2173913043478</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>0.655399473222125</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>0.258037508372404</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>478</v>
@@ -2846,31 +2833,31 @@
       <c r="D67" s="1" t="n">
         <v>0.105744148527954</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
+      <c r="E67" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F67" s="1" t="n">
+        <v>47.7132519222072</v>
+      </c>
+      <c r="G67" s="1" t="n">
         <v>0.0131887431712597</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>14</v>
+      <c r="H67" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>12.1791044776119</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>0.595337995337995</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>0.394479248238058</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>461</v>
@@ -2881,31 +2868,31 @@
       <c r="D68" s="1" t="n">
         <v>0.097473435134907</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
+      <c r="E68" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F68" s="1" t="n">
+        <v>91.7358661239258</v>
+      </c>
+      <c r="G68" s="1" t="n">
         <v>0.0130467983173505</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>14</v>
+      <c r="H68" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>11.6716417910448</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>0.64009324009324</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>0.378732702112163</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>507</v>
@@ -2916,31 +2903,31 @@
       <c r="D69" s="1" t="n">
         <v>0.0884363633689264</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
+      <c r="E69" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F69" s="1" t="n">
+        <v>61.6218905472637</v>
+      </c>
+      <c r="G69" s="1" t="n">
         <v>0.0116906251981933</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>14</v>
+      <c r="H69" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>12.5223880597015</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>0.625174825174825</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>0.363534675615213</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>468</v>
@@ -2951,31 +2938,31 @@
       <c r="D70" s="1" t="n">
         <v>0.123211139655243</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
+      <c r="E70" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F70" s="1" t="n">
+        <v>47.9539069359087</v>
+      </c>
+      <c r="G70" s="1" t="n">
         <v>0.0147768946646136</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>14</v>
+      <c r="H70" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>11.6764705882353</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>0.656264133876074</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>0.329772570640937</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>528</v>
@@ -2986,31 +2973,31 @@
       <c r="D71" s="1" t="n">
         <v>0.0949073260436841</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
+      <c r="E71" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F71" s="1" t="n">
+        <v>38.1478968792402</v>
+      </c>
+      <c r="G71" s="1" t="n">
         <v>0.0115351400193906</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>14</v>
+      <c r="H71" s="1" t="n">
+        <v>0.393939393939394</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>23.4179104477612</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>0.64009324009324</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>0.307720320466133</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>437</v>
@@ -3021,31 +3008,31 @@
       <c r="D72" s="1" t="n">
         <v>0.100676076410339</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
+      <c r="E72" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F72" s="1" t="n">
+        <v>61.9004975124378</v>
+      </c>
+      <c r="G72" s="1" t="n">
         <v>0.0119400350636203</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>14</v>
+      <c r="H72" s="1" t="n">
+        <v>0.378787878787879</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>16.3731343283582</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0.619114219114219</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0.305911144578313</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>490</v>
@@ -3056,31 +3043,31 @@
       <c r="D73" s="1" t="n">
         <v>0.133845114255311</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
+      <c r="E73" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F73" s="1" t="n">
+        <v>52.3229308005427</v>
+      </c>
+      <c r="G73" s="1" t="n">
         <v>0.0170723113880734</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>14</v>
+      <c r="H73" s="1" t="n">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>13.3134328358209</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>0.595337995337995</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>0.356303837118246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>413</v>
@@ -3091,31 +3078,31 @@
       <c r="D74" s="1" t="n">
         <v>0.105438653374393</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
+      <c r="E74" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F74" s="1" t="n">
+        <v>65.1519674355495</v>
+      </c>
+      <c r="G74" s="1" t="n">
         <v>0.0125854970061172</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>14</v>
+      <c r="H74" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>14.1194029850746</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0.679254079254079</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>0.368050789293068</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>442</v>
@@ -3126,31 +3113,31 @@
       <c r="D75" s="1" t="n">
         <v>0.129438783230817</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
+      <c r="E75" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F75" s="1" t="n">
+        <v>50.2442333785617</v>
+      </c>
+      <c r="G75" s="1" t="n">
         <v>0.0174249698880278</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>14</v>
+      <c r="H75" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>11.955223880597</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>0.391414141414141</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>499</v>
@@ -3161,31 +3148,31 @@
       <c r="D76" s="1" t="n">
         <v>0.0952994524238849</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
+      <c r="E76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F76" s="1" t="n">
+        <v>41.7024722932651</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <v>0.0104096552830861</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>14</v>
+      <c r="H76" s="1" t="n">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>13.7101449275362</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>0.648375768217735</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>0.340216655382532</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>484</v>
@@ -3196,31 +3183,31 @@
       <c r="D77" s="1" t="n">
         <v>0.089326641491629</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
+      <c r="E77" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F77" s="1" t="n">
+        <v>29.3482587064677</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <v>0.00992466007487342</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>14</v>
+      <c r="H77" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>13.6268656716418</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>0.635431235431236</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>0.369589141599413</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>490</v>
@@ -3231,31 +3218,31 @@
       <c r="D78" s="1" t="n">
         <v>0.0888681843554541</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="n">
+        <v>43.2732310315431</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <v>0.00963554641396725</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>14</v>
+      <c r="H78" s="1" t="n">
+        <v>0.397058823529412</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>12.6811594202899</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>0.803336259877085</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>0.247131147540984</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>489</v>
@@ -3266,31 +3253,31 @@
       <c r="D79" s="1" t="n">
         <v>0.0974521488337743</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
+      <c r="E79" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F79" s="1" t="n">
+        <v>31.4066033469018</v>
+      </c>
+      <c r="G79" s="1" t="n">
         <v>0.010230898550969</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>14</v>
+      <c r="H79" s="1" t="n">
+        <v>0.46969696969697</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>15.3283582089552</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0.675990675990676</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>0.347413793103448</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>485</v>
@@ -3301,31 +3288,31 @@
       <c r="D80" s="1" t="n">
         <v>0.0945553078530267</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
+      <c r="E80" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F80" s="1" t="n">
+        <v>39.8292361720808</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <v>0.010708987568739</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>14</v>
+      <c r="H80" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>14.5294117647059</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>0.647218453188602</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>0.334381551362683</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>455</v>
@@ -3336,31 +3323,31 @@
       <c r="D81" s="1" t="n">
         <v>0.109396354122723</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>12</v>
+      <c r="E81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="n">
+        <v>43.8243819266837</v>
+      </c>
+      <c r="G81" s="1" t="n">
         <v>0.0136407953395336</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>14</v>
+      <c r="H81" s="1" t="n">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>16.304347826087</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>0.607989464442493</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>0.362815884476534</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>520</v>
@@ -3371,31 +3358,31 @@
       <c r="D82" s="1" t="n">
         <v>0.0936890057931711</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
+      <c r="E82" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F82" s="1" t="n">
+        <v>37.7236544549977</v>
+      </c>
+      <c r="G82" s="1" t="n">
         <v>0.0117902456695609</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>14</v>
+      <c r="H82" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>11.9253731343284</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>0.719347319347319</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>0.33700583279326</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>477</v>
@@ -3406,31 +3393,31 @@
       <c r="D83" s="1" t="n">
         <v>0.0994019854464986</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
+      <c r="E83" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F83" s="1" t="n">
+        <v>49.6621438263229</v>
+      </c>
+      <c r="G83" s="1" t="n">
         <v>0.0119240816914884</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>14</v>
+      <c r="H83" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>12.8358208955224</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>0.595804195804196</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>0.381455399061033</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>479</v>
@@ -3441,31 +3428,31 @@
       <c r="D84" s="1" t="n">
         <v>0.101785269178399</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
+      <c r="E84" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F84" s="1" t="n">
+        <v>33.6689280868385</v>
+      </c>
+      <c r="G84" s="1" t="n">
         <v>0.0120053127646707</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>14</v>
+      <c r="H84" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>12.910447761194</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>0.684382284382284</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>0.33208446866485</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>428</v>
@@ -3476,31 +3463,31 @@
       <c r="D85" s="1" t="n">
         <v>0.101120683147278</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
+      <c r="E85" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F85" s="1" t="n">
+        <v>66.4240384615385</v>
+      </c>
+      <c r="G85" s="1" t="n">
         <v>0.0129210813296787</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>14</v>
+      <c r="H85" s="1" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>17.0769230769231</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>0.639880952380952</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>0.329651162790698</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>484</v>
@@ -3511,31 +3498,31 @@
       <c r="D86" s="1" t="n">
         <v>0.0978129038564129</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
+      <c r="E86" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F86" s="1" t="n">
+        <v>85.1593503072871</v>
+      </c>
+      <c r="G86" s="1" t="n">
         <v>0.0130026748480635</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>14</v>
+      <c r="H86" s="1" t="n">
+        <v>0.462686567164179</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>13.5735294117647</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>0.620081411126187</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>0.37308533916849</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>475</v>
@@ -3546,31 +3533,31 @@
       <c r="D87" s="1" t="n">
         <v>0.0856987688124489</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
+      <c r="E87" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F87" s="1" t="n">
+        <v>27.3564530289728</v>
+      </c>
+      <c r="G87" s="1" t="n">
         <v>0.00938990489822533</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>14</v>
+      <c r="H87" s="1" t="n">
+        <v>0.477611940298508</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>13.6911764705882</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>0.647670737222976</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>0.368715083798883</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>492</v>
@@ -3581,31 +3568,31 @@
       <c r="D88" s="1" t="n">
         <v>0.0991247420747823</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
+      <c r="E88" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F88" s="1" t="n">
+        <v>53.6391571553995</v>
+      </c>
+      <c r="G88" s="1" t="n">
         <v>0.0112765712719245</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>14</v>
+      <c r="H88" s="1" t="n">
+        <v>0.373134328358209</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>12.6764705882353</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>0.76797829036635</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>0.242932862190813</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>452</v>
@@ -3616,31 +3603,31 @@
       <c r="D89" s="1" t="n">
         <v>0.0926424463744543</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
+      <c r="E89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F89" s="1" t="n">
+        <v>55.9680306905371</v>
+      </c>
+      <c r="G89" s="1" t="n">
         <v>0.0107925224361362</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>14</v>
+      <c r="H89" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>14.1884057971014</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>0.650131694468832</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>0.316677920324105</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>484</v>
@@ -3651,31 +3638,31 @@
       <c r="D90" s="1" t="n">
         <v>0.0976725614275785</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>12</v>
+      <c r="E90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F90" s="1" t="n">
+        <v>46.0549872122762</v>
+      </c>
+      <c r="G90" s="1" t="n">
         <v>0.0113719155153265</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>14</v>
+      <c r="H90" s="1" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>14.0869565217391</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>0.682177348551361</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>0.344916344916345</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>400</v>
@@ -3686,31 +3673,31 @@
       <c r="D91" s="1" t="n">
         <v>0.101718071470475</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
+      <c r="E91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="n">
+        <v>55.4641943734015</v>
+      </c>
+      <c r="G91" s="1" t="n">
         <v>0.01098028680778</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>14</v>
+      <c r="H91" s="1" t="n">
+        <v>0.382352941176471</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>14.1159420289855</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>0.611062335381914</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>0.312859195402299</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>475</v>
@@ -3721,31 +3708,31 @@
       <c r="D92" s="1" t="n">
         <v>0.101824435502732</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>12</v>
+      <c r="E92" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="n">
+        <v>73.437296037296</v>
+      </c>
+      <c r="G92" s="1" t="n">
         <v>0.0118911352230677</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>14</v>
+      <c r="H92" s="1" t="n">
+        <v>0.446153846153846</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>14.3939393939394</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>0.636057692307692</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>0.350718065003779</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>439</v>
@@ -3757,13 +3744,13 @@
         <v>0.124412230787073</v>
       </c>
       <c r="E93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="n">
         <v>50.472049689441</v>
       </c>
-      <c r="F93" s="1" t="n">
+      <c r="G93" s="1" t="n">
         <v>0.0148725974596689</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>0.449275362318841</v>
@@ -3780,7 +3767,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>464</v>
@@ -3791,31 +3778,31 @@
       <c r="D94" s="1" t="n">
         <v>0.0935589104904762</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>12</v>
+      <c r="E94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F94" s="1" t="n">
+        <v>105.021739130435</v>
+      </c>
+      <c r="G94" s="1" t="n">
         <v>0.0125480211426662</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>14</v>
+      <c r="H94" s="1" t="n">
+        <v>0.397058823529412</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>14.2898550724638</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>0.627304653204565</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>0.316480055983205</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>490</v>
@@ -3826,31 +3813,31 @@
       <c r="D95" s="1" t="n">
         <v>0.0990418128603309</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>12</v>
+      <c r="E95" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F95" s="1" t="n">
+        <v>88.8555750658472</v>
+      </c>
+      <c r="G95" s="1" t="n">
         <v>0.0131395506257582</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>14</v>
+      <c r="H95" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>13.8823529411765</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>0.639981908638625</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>0.338162544169611</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>467</v>
@@ -3861,31 +3848,31 @@
       <c r="D96" s="1" t="n">
         <v>0.10556802649224</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>12</v>
+      <c r="E96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F96" s="1" t="n">
+        <v>26.3938618925831</v>
+      </c>
+      <c r="G96" s="1" t="n">
         <v>0.011091270820719</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>14</v>
+      <c r="H96" s="1" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>12.0144927536232</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>0.663301141352063</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>0.354731965585705</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>398</v>
@@ -3896,31 +3883,31 @@
       <c r="D97" s="1" t="n">
         <v>0.113400101780229</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>12</v>
+      <c r="E97" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="n">
+        <v>28.0613432046536</v>
+      </c>
+      <c r="G97" s="1" t="n">
         <v>0.0106784760677856</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>14</v>
+      <c r="H97" s="1" t="n">
+        <v>0.491803278688525</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>12.0322580645161</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>0.67103825136612</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>0.366449511400651</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>481</v>
@@ -3931,31 +3918,31 @@
       <c r="D98" s="1" t="n">
         <v>0.088965726680862</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>12</v>
+      <c r="E98" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F98" s="1" t="n">
+        <v>49.0873573309921</v>
+      </c>
+      <c r="G98" s="1" t="n">
         <v>0.0107638500133733</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>14</v>
+      <c r="H98" s="1" t="n">
+        <v>0.477611940298508</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>14.9264705882353</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0.651289009497965</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>0.366666666666667</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>457</v>
@@ -3966,31 +3953,31 @@
       <c r="D99" s="1" t="n">
         <v>0.0987907469889741</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
+      <c r="E99" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F99" s="1" t="n">
+        <v>48.7875329236172</v>
+      </c>
+      <c r="G99" s="1" t="n">
         <v>0.0123697301374664</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>14</v>
+      <c r="H99" s="1" t="n">
+        <v>0.402985074626866</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>18.4117647058824</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>0.611035730438716</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>0.329755736491488</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>448</v>
@@ -4001,31 +3988,31 @@
       <c r="D100" s="1" t="n">
         <v>0.103601519398647</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>12</v>
+      <c r="E100" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F100" s="1" t="n">
+        <v>55.0065847234416</v>
+      </c>
+      <c r="G100" s="1" t="n">
         <v>0.0122003361920006</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>14</v>
+      <c r="H100" s="1" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>14.3823529411765</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>0.733604703753958</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>0.295006165228114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>426</v>
@@ -4036,31 +4023,31 @@
       <c r="D101" s="1" t="n">
         <v>0.0947716729100682</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>12</v>
+      <c r="E101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F101" s="1" t="n">
+        <v>61.0004262574595</v>
+      </c>
+      <c r="G101" s="1" t="n">
         <v>0.00962893637666619</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>14</v>
+      <c r="H101" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>16.9420289855073</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>0.572870939420544</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>0.359386973180077</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>496</v>
@@ -4071,31 +4058,31 @@
       <c r="D102" s="1" t="n">
         <v>0.0842236264773156</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>12</v>
+      <c r="E102" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F102" s="1" t="n">
+        <v>51.5124378109453</v>
+      </c>
+      <c r="G102" s="1" t="n">
         <v>0.00950807490116328</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>14</v>
+      <c r="H102" s="1" t="n">
+        <v>0.439393939393939</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>9.40298507462687</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>0.708158508158508</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>0.310236998025016</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>571</v>
@@ -4106,31 +4093,31 @@
       <c r="D103" s="1" t="n">
         <v>0.0986681775965488</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>12</v>
+      <c r="E103" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F103" s="1" t="n">
+        <v>39.6874451273047</v>
+      </c>
+      <c r="G103" s="1" t="n">
         <v>0.0120710221908451</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>14</v>
+      <c r="H103" s="1" t="n">
+        <v>0.388059701492537</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>13.5735294117647</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>0.616010854816825</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>0.314977973568282</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>491</v>
@@ -4141,31 +4128,31 @@
       <c r="D104" s="1" t="n">
         <v>0.122282355721683</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>12</v>
+      <c r="E104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F104" s="1" t="n">
+        <v>34.6364023870418</v>
+      </c>
+      <c r="G104" s="1" t="n">
         <v>0.0142009648435777</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>14</v>
+      <c r="H104" s="1" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>14.3768115942029</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>0.613257243195786</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>0.383679312813171</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>513</v>
@@ -4176,31 +4163,31 @@
       <c r="D105" s="1" t="n">
         <v>0.0910705343915769</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
+      <c r="E105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F105" s="1" t="n">
+        <v>48.9889173060528</v>
+      </c>
+      <c r="G105" s="1" t="n">
         <v>0.0111598441618619</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>14</v>
+      <c r="H105" s="1" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>14.4347826086957</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>0.65188762071993</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>0.315824915824916</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>449</v>
@@ -4211,31 +4198,31 @@
       <c r="D106" s="1" t="n">
         <v>0.101802585986209</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
+      <c r="E106" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F106" s="1" t="n">
+        <v>92.4951712028095</v>
+      </c>
+      <c r="G106" s="1" t="n">
         <v>0.0136821318224931</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>14</v>
+      <c r="H106" s="1" t="n">
+        <v>0.462686567164179</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>12.6029411764706</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>0.654002713704206</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>0.353734439834025</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>417</v>
@@ -4246,31 +4233,31 @@
       <c r="D107" s="1" t="n">
         <v>0.0977407989842811</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>12</v>
+      <c r="E107" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="n">
+        <v>62.0377622377622</v>
+      </c>
+      <c r="G107" s="1" t="n">
         <v>0.0119198532445918</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>14</v>
+      <c r="H107" s="1" t="n">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>11.3484848484849</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>0.742788461538462</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>0.331391585760518</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>484</v>
@@ -4281,31 +4268,31 @@
       <c r="D108" s="1" t="n">
         <v>0.0845968254809267</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>12</v>
+      <c r="E108" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="n">
+        <v>60.8937062937063</v>
+      </c>
+      <c r="G108" s="1" t="n">
         <v>0.00981242609050931</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>14</v>
+      <c r="H108" s="1" t="n">
+        <v>0.446153846153846</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>18.5151515151515</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>0.569230769230769</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>0.391891891891892</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>463</v>
@@ -4316,31 +4303,31 @@
       <c r="D109" s="1" t="n">
         <v>0.106564272583916</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>12</v>
+      <c r="E109" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F109" s="1" t="n">
+        <v>53.2045654082529</v>
+      </c>
+      <c r="G109" s="1" t="n">
         <v>0.0127022823402081</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>14</v>
+      <c r="H109" s="1" t="n">
+        <v>0.447761194029851</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>13.2058823529412</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>0.656716417910448</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>0.340909090909091</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>480</v>
@@ -4351,31 +4338,31 @@
       <c r="D110" s="1" t="n">
         <v>0.0964576291975745</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>12</v>
+      <c r="E110" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F110" s="1" t="n">
+        <v>45.3894165535957</v>
+      </c>
+      <c r="G110" s="1" t="n">
         <v>0.0108263651981012</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>14</v>
+      <c r="H110" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>11.9253731343284</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>0.724009324009324</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>0.313908564069543</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>477</v>
@@ -4386,31 +4373,31 @@
       <c r="D111" s="1" t="n">
         <v>0.0890879203862944</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
+      <c r="E111" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F111" s="1" t="n">
+        <v>68.6255088195387</v>
+      </c>
+      <c r="G111" s="1" t="n">
         <v>0.01086197088628</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>14</v>
+      <c r="H111" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>13.9253731343284</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>0.654079254079254</v>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>0.347469707769066</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>533</v>
@@ -4421,31 +4408,31 @@
       <c r="D112" s="1" t="n">
         <v>0.0864642922628368</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>12</v>
+      <c r="E112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F112" s="1" t="n">
+        <v>53.4075021312873</v>
+      </c>
+      <c r="G112" s="1" t="n">
         <v>0.0107355703283069</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>14</v>
+      <c r="H112" s="1" t="n">
+        <v>0.514705882352941</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>12.4492753623188</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>0.740122914837577</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>0.347716488730724</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>524</v>
@@ -4456,31 +4443,31 @@
       <c r="D113" s="1" t="n">
         <v>0.103910352440866</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>12</v>
+      <c r="E113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F113" s="1" t="n">
+        <v>58.0520034100597</v>
+      </c>
+      <c r="G113" s="1" t="n">
         <v>0.0145418497020995</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>14</v>
+      <c r="H113" s="1" t="n">
+        <v>0.426470588235294</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>14.9710144927536</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <v>0.723441615452151</v>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>0.294751213592233</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>459</v>
@@ -4491,31 +4478,31 @@
       <c r="D114" s="1" t="n">
         <v>0.0872089069512354</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>12</v>
+      <c r="E114" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F114" s="1" t="n">
+        <v>57.2528267752148</v>
+      </c>
+      <c r="G114" s="1" t="n">
         <v>0.00947242263527086</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>14</v>
+      <c r="H114" s="1" t="n">
+        <v>0.484848484848485</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>13.9402985074627</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>0.669463869463869</v>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>0.362116991643454</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>480</v>
@@ -4526,26 +4513,26 @@
       <c r="D115" s="1" t="n">
         <v>0.117559900428099</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>12</v>
+      <c r="E115" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F115" s="1" t="n">
+        <v>41.3242876526459</v>
+      </c>
+      <c r="G115" s="1" t="n">
         <v>0.0139142403697862</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>14</v>
+      <c r="H115" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>11.6716417910448</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <v>0.647086247086247</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>0.351224783861671</v>
       </c>
     </row>
   </sheetData>
